--- a/public/preprocessing/@kopas_kopas.xlsx
+++ b/public/preprocessing/@kopas_kopas.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H82"/>
+  <dimension ref="A1:I83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,15 +456,20 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>tweet_tokens_alay</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>tweet_tokens_fdist</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_WSW</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>tweet_tokens_stemmed</t>
         </is>
@@ -475,10 +480,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>20449</v>
+        <v>23900</v>
       </c>
       <c r="C2" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -492,15 +497,20 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>['rt', 'ankara', 'diguncang', 'bom', 'mobil', 'tewas']</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 6 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>['ankara', 'diguncang', 'bom', 'mobil', 'tewas']</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
+      <c r="I2" t="inlineStr">
         <is>
           <t>['ankara', 'guncang', 'bom', 'mobil', 'tewas']</t>
         </is>
@@ -511,10 +521,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20450</v>
+        <v>23901</v>
       </c>
       <c r="C3" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -528,17 +538,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>['rt', 'ini', 'pertimbangan', 'majelis, ulama, indonesia', 'dan', 'ormasormas', 'islam', 'dorong', 'lgbt', 'dilarang', 'via']</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>['pertimbangan', 'mui', 'ormasormas', 'islam', 'dorong', 'lgbt', 'dilarang', 'via']</t>
-        </is>
-      </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>['timbang', 'mui', 'ormasormas', 'islam', 'dorong', 'lgbt', 'larang', 'via']</t>
+          <t>['pertimbangan', 'majelis, ulama, indonesia', 'ormasormas', 'islam', 'dorong', 'lgbt', 'dilarang', 'via']</t>
+        </is>
+      </c>
+      <c r="I3" t="inlineStr">
+        <is>
+          <t>['timbang', 'majelis ulama indonesia', 'ormasormas', 'islam', 'dorong', 'lgbt', 'larang', 'via']</t>
         </is>
       </c>
     </row>
@@ -547,10 +562,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>20451</v>
+        <v>23902</v>
       </c>
       <c r="C4" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -564,17 +579,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>['rt', 'donald', 'trump', 'will', 'not', 'be', 'presiden', 'says', 'presiden', 'obama']</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>['donald', 'trump', 'will', 'not', 'be', 'president', 'says', 'president', 'obama']</t>
-        </is>
-      </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>['donald', 'trump', 'will', 'not', 'be', 'president', 'says', 'president', 'obama']</t>
+          <t>['donald', 'trump', 'will', 'not', 'be', 'presiden', 'says', 'presiden', 'obama']</t>
+        </is>
+      </c>
+      <c r="I4" t="inlineStr">
+        <is>
+          <t>['donald', 'trump', 'will', 'not', 'be', 'presiden', 'says', 'presiden', 'obama']</t>
         </is>
       </c>
     </row>
@@ -583,10 +603,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20452</v>
+        <v>23903</v>
       </c>
       <c r="C5" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -600,17 +620,22 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>['rt', 'kakak', 'saya', 'tidak', 'tahu', 'apa', 'yang', 'membuat', 'presiden', 'malu', 'disandingkan', 'foto', 'dengan', 'nikita', 'mirzani', 'kan', 'itu', 'foto', 'asli', 'dulu', 'nikita', 'penduk']</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 22 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>['aa', 'presiden', 'malu', 'disandingkan', 'fhoto', 'nikita', 'mirzani', 'fhoto', 'asli', 'nikita', 'penduk']</t>
-        </is>
-      </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>['aa', 'presiden', 'malu', 'sanding', 'fhoto', 'nikita', 'mirzani', 'fhoto', 'asli', 'nikita', 'penduk']</t>
+          <t>['kakak', 'presiden', 'malu', 'disandingkan', 'foto', 'nikita', 'mirzani', 'foto', 'asli', 'nikita', 'penduk']</t>
+        </is>
+      </c>
+      <c r="I5" t="inlineStr">
+        <is>
+          <t>['kakak', 'presiden', 'malu', 'sanding', 'foto', 'nikita', 'mirzani', 'foto', 'asli', 'nikita', 'penduk']</t>
         </is>
       </c>
     </row>
@@ -619,10 +644,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>20453</v>
+        <v>23904</v>
       </c>
       <c r="C6" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -636,17 +661,22 @@
       </c>
       <c r="F6" t="inlineStr">
         <is>
+          <t>['rt', 'harga', 'kebutuhan', 'dapur', 'meroket', 'telur', 'daging', 'ayam', 'sayur', 'cabe', 'tomat', 'dan, lain, lain']</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>['harga', 'kebutuhan', 'dapur', 'meroket', 'telur', 'daging', 'ayam', 'sayur', 'cabe', 'tomat', 'dll']</t>
-        </is>
-      </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>['harga', 'butuh', 'dapur', 'roket', 'telur', 'daging', 'ayam', 'sayur', 'cabe', 'tomat', 'dll']</t>
+          <t>['harga', 'kebutuhan', 'dapur', 'meroket', 'telur', 'daging', 'ayam', 'sayur', 'cabe', 'tomat', 'dan, lain, lain']</t>
+        </is>
+      </c>
+      <c r="I6" t="inlineStr">
+        <is>
+          <t>['harga', 'butuh', 'dapur', 'roket', 'telur', 'daging', 'ayam', 'sayur', 'cabe', 'tomat', 'dan lain lain']</t>
         </is>
       </c>
     </row>
@@ -655,10 +685,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>20454</v>
+        <v>23905</v>
       </c>
       <c r="C7" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -672,15 +702,20 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>['rt', 'waduh', 'apa', 'ini', 'sotosop']</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G7" t="inlineStr">
+      <c r="H7" t="inlineStr">
         <is>
           <t>['sotosop']</t>
         </is>
       </c>
-      <c r="H7" t="inlineStr">
+      <c r="I7" t="inlineStr">
         <is>
           <t>['sotosop']</t>
         </is>
@@ -691,10 +726,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>20455</v>
+        <v>23906</v>
       </c>
       <c r="C8" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -708,15 +743,20 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>['rt', 'selain', 'ternyata', 'juga']</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G8" t="inlineStr">
+      <c r="H8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H8" t="inlineStr">
+      <c r="I8" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -727,10 +767,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>20456</v>
+        <v>23907</v>
       </c>
       <c r="C9" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -744,17 +784,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>['wah', 'rt', 'jangan', 'asal', 'terbangken', 'ke', 'pluto']</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>['wow', 'terbangken', 'pluto']</t>
-        </is>
-      </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>['wow', 'terbangken', 'pluto']</t>
+          <t>['terbangken', 'pluto']</t>
+        </is>
+      </c>
+      <c r="I9" t="inlineStr">
+        <is>
+          <t>['terbangken', 'pluto']</t>
         </is>
       </c>
     </row>
@@ -763,10 +808,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>20457</v>
+        <v>23908</v>
       </c>
       <c r="C10" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -780,17 +825,22 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>['rt', 'daha', 'yang', 'mengangkat', 'juga', 'jago', 'tipurezim', 'penipu']</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>['daha', 'mengangkat', 'jg', 'jago', 'tipurezim', 'penipu']</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>['daha', 'angkat', 'jg', 'jago', 'tipurezim', 'tipu']</t>
+          <t>['daha', 'mengangkat', 'jago', 'tipurezim', 'penipu']</t>
+        </is>
+      </c>
+      <c r="I10" t="inlineStr">
+        <is>
+          <t>['daha', 'angkat', 'jago', 'tipurezim', 'tipu']</t>
         </is>
       </c>
     </row>
@@ -799,10 +849,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>20458</v>
+        <v>23909</v>
       </c>
       <c r="C11" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -816,15 +866,20 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>['rt']</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 1 samples and 1 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G11" t="inlineStr">
+      <c r="H11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
       </c>
-      <c r="H11" t="inlineStr">
+      <c r="I11" t="inlineStr">
         <is>
           <t>[]</t>
         </is>
@@ -835,10 +890,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>20459</v>
+        <v>23910</v>
       </c>
       <c r="C12" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
@@ -852,17 +907,22 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>['rt', 'mulai', 'tercium', 'gelagat', 'bahwa', 'penempatan', 'para', 'relawan', 'jokowi', 'di', 'badan, usaha, milik, negara', 'merupakan', 'strategi', 'jokowi', 'untuk', 'mendapatkan', 'dana', 'di', 'pilp']</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>['tercium', 'gelagat', 'penempatan', 'relawan', 'jokowi', 'bumn', 'strategi', 'jokowi', 'dana', 'pilp']</t>
-        </is>
-      </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>['cium', 'gelagat', 'tempat', 'rawan', 'jokowi', 'bumn', 'strategi', 'jokowi', 'dana', 'pilp']</t>
+          <t>['tercium', 'gelagat', 'penempatan', 'relawan', 'jokowi', 'badan, usaha, milik, negara', 'strategi', 'jokowi', 'dana', 'pilp']</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>['cium', 'gelagat', 'tempat', 'rawan', 'jokowi', 'badan usaha milik negara', 'strategi', 'jokowi', 'dana', 'pilp']</t>
         </is>
       </c>
     </row>
@@ -871,10 +931,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>20460</v>
+        <v>23911</v>
       </c>
       <c r="C13" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
@@ -888,15 +948,20 @@
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>['rt', 'lambungken']</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>['lambungken']</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
+      <c r="I13" t="inlineStr">
         <is>
           <t>['lambungken']</t>
         </is>
@@ -907,10 +972,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>20461</v>
+        <v>23912</v>
       </c>
       <c r="C14" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
@@ -924,15 +989,20 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>['rt', 'myanshari', 'awalnya', 'belajar', 'mencinta', 'akhirnya', 'pasti', 'dipaksa', 'belajar', 'pula', 'terpisah', 'dengan', 'yang', 'dicinta', 'segala', 'yang', 'di', 'dunia']</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G14" t="inlineStr">
+      <c r="H14" t="inlineStr">
         <is>
           <t>['myanshari', 'belajar', 'mencinta', 'dipaksa', 'belajar', 'terpisah', 'dicinta', 'dunia']</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
+      <c r="I14" t="inlineStr">
         <is>
           <t>['myanshari', 'ajar', 'cinta', 'paksa', 'ajar', 'pisah', 'cinta', 'dunia']</t>
         </is>
@@ -943,10 +1013,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>20462</v>
+        <v>23913</v>
       </c>
       <c r="C15" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
@@ -960,15 +1030,20 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>['rt', 'kabut', 'asap', 'masyarakat', 'bisa', 'gugat', 'pemerintah']</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>['kabut', 'asap', 'masyarakat', 'gugat', 'pemerintah']</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
+      <c r="I15" t="inlineStr">
         <is>
           <t>['kabut', 'asap', 'masyarakat', 'gugat', 'perintah']</t>
         </is>
@@ -979,10 +1054,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>20463</v>
+        <v>23914</v>
       </c>
       <c r="C16" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
@@ -996,17 +1071,22 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>['rt', 'lanjutkan']</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>['lanjutken']</t>
-        </is>
-      </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>['lanjutken']</t>
+          <t>['lanjutkan']</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>['lanjut']</t>
         </is>
       </c>
     </row>
@@ -1015,10 +1095,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>20464</v>
+        <v>23915</v>
       </c>
       <c r="C17" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
@@ -1032,17 +1112,22 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>['rt', 'bertiana', 'asap', 'sumatra', 'dan', 'kalimantan', 'makin', 'pekat', 'jokowijk', 'bisa', 'jatuh']</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
-        <is>
-          <t>['bertiana', 'asap', 'sumatera', 'kalimantan', 'pekat', 'jokowijk', 'jatuh']</t>
-        </is>
-      </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>['bertiana', 'asap', 'sumatera', 'kalimantan', 'pekat', 'jokowijk', 'jatuh']</t>
+          <t>['bertiana', 'asap', 'sumatra', 'kalimantan', 'pekat', 'jokowijk', 'jatuh']</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>['bertiana', 'asap', 'sumatra', 'kalimantan', 'pekat', 'jokowijk', 'jatuh']</t>
         </is>
       </c>
     </row>
@@ -1051,10 +1136,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>20465</v>
+        <v>23916</v>
       </c>
       <c r="C18" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
@@ -1068,15 +1153,20 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>['rt', 'ditunggu', 'kata', 'komut', 'pt', 'adhi', 'karya', 'di', 'bio', 'twitternya', 'panjul']</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G18" t="inlineStr">
+      <c r="H18" t="inlineStr">
         <is>
           <t>['ditunggu', 'komut', 'pt', 'adhi', 'karya', 'bio', 'twitternya', 'panjul']</t>
         </is>
       </c>
-      <c r="H18" t="inlineStr">
+      <c r="I18" t="inlineStr">
         <is>
           <t>['tunggu', 'komut', 'pt', 'adhi', 'karya', 'bio', 'twitternya', 'panjul']</t>
         </is>
@@ -1087,10 +1177,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>20466</v>
+        <v>23917</v>
       </c>
       <c r="C19" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
@@ -1104,17 +1194,22 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>['rt', 'tidak', 'usah', 'mencari', 'pembenaran', 'lah', 'siapa', 'sih', 'yang', 'mw', 'disebut', 'goblok', 'hanya', 'karena', 'dia', 'berjenggot', 'atau', 'dia', 'muhammadiyah']</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G19" t="inlineStr">
-        <is>
-          <t>['nyari', 'pembenaran', 'mw', 'goblok', 'berjenggot', 'muhammadiyah']</t>
-        </is>
-      </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>['nyari', 'benar', 'mw', 'goblok', 'jenggot', 'muhammadiyah']</t>
+          <t>['mencari', 'pembenaran', 'mw', 'goblok', 'berjenggot', 'muhammadiyah']</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>['cari', 'benar', 'mw', 'goblok', 'jenggot', 'muhammadiyah']</t>
         </is>
       </c>
     </row>
@@ -1123,10 +1218,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>20467</v>
+        <v>23918</v>
       </c>
       <c r="C20" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
@@ -1140,17 +1235,22 @@
       </c>
       <c r="F20" t="inlineStr">
         <is>
+          <t>['rt', 'kedang', 'ingat', 'yang', 'suka', 'mencebur', 'got', 'kopral', 'jenderal', 'kodok', 'kalau', 'lihat', 'orang', 'inikelian', 'ingat', 'siapa', 'hayoooo', 'htt']</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G20" t="inlineStr">
-        <is>
-          <t>['kedang', 'suka', 'nyebur', 'got', 'kopral', 'jendral', 'kodok', 'lihat', 'orang', 'inikelian', 'hayoooo', 'htt']</t>
-        </is>
-      </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>['kedang', 'suka', 'nyebur', 'got', 'kopral', 'jendral', 'kodok', 'lihat', 'orang', 'inikelian', 'hayoooo', 'htt']</t>
+          <t>['kedang', 'suka', 'mencebur', 'got', 'kopral', 'jenderal', 'kodok', 'lihat', 'orang', 'inikelian', 'hayoooo', 'htt']</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>['kedang', 'suka', 'cebur', 'got', 'kopral', 'jenderal', 'kodok', 'lihat', 'orang', 'inikelian', 'hayoooo', 'htt']</t>
         </is>
       </c>
     </row>
@@ -1159,10 +1259,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>20468</v>
+        <v>23919</v>
       </c>
       <c r="C21" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
@@ -1176,17 +1276,22 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
+          <t>['wkwk', 'rt', 'harusnya', 'prabowo', 'tanya', 'waktu', 'itu', 'soekarno', 'lahir', 'dimana', 'pak', 'joko', 'setelah', 'jokowi', 'bertanya', 'singkatan', 'tpid']</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G21" t="inlineStr">
-        <is>
-          <t>['lol', 'prabowo', 'tnya', 'soekarno', 'lahir', 'dimana', 'joko', 'jokowi', 'nanya', 'singkatan', 'tpid']</t>
-        </is>
-      </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>['lol', 'prabowo', 'tnya', 'soekarno', 'lahir', 'mana', 'joko', 'jokowi', 'nanya', 'singkat', 'tpid']</t>
+          <t>['wkwk', 'prabowo', 'soekarno', 'lahir', 'dimana', 'joko', 'jokowi', 'singkatan', 'tpid']</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>['wkwk', 'prabowo', 'soekarno', 'lahir', 'mana', 'joko', 'jokowi', 'singkat', 'tpid']</t>
         </is>
       </c>
     </row>
@@ -1195,10 +1300,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>20469</v>
+        <v>23920</v>
       </c>
       <c r="C22" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
@@ -1212,17 +1317,22 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>['rt', 'surya', 'sekarang', 'wajar', 'kalau', 'rakyat', 'mempertanyakan', 'dana', 'yang', 'masuk', 'ke']</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G22" t="inlineStr">
-        <is>
-          <t>['surya', 'skr', 'wajar', 'rakyat', 'dana', 'masuk']</t>
-        </is>
-      </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>['surya', 'skr', 'wajar', 'rakyat', 'dana', 'masuk']</t>
+          <t>['surya', 'wajar', 'rakyat', 'dana', 'masuk']</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>['surya', 'wajar', 'rakyat', 'dana', 'masuk']</t>
         </is>
       </c>
     </row>
@@ -1231,10 +1341,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>20470</v>
+        <v>23921</v>
       </c>
       <c r="C23" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
@@ -1248,17 +1358,22 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>['rt', 'serahkan', 'saja', 'mandat', 'pada', 'rakyat', 'kembali', 'go', 'to', 'hell', 'dengan', 'your', 'aid']</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G23" t="inlineStr">
-        <is>
-          <t>['serahkan', 'mandat', 'pd', 'rakyat', 'go', 'to', 'hell', 'with', 'your', 'aid']</t>
-        </is>
-      </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>['serah', 'mandat', 'pd', 'rakyat', 'go', 'to', 'hell', 'with', 'your', 'aid']</t>
+          <t>['serahkan', 'mandat', 'rakyat', 'go', 'to', 'hell', 'your', 'aid']</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>['serah', 'mandat', 'rakyat', 'go', 'to', 'hell', 'your', 'aid']</t>
         </is>
       </c>
     </row>
@@ -1267,10 +1382,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>20471</v>
+        <v>23922</v>
       </c>
       <c r="C24" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
@@ -1284,17 +1399,22 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>['rt', 'indigo', 'sospol', 'ini', 'enak', 'jaman', 'kertu', 'toh', 'htt']</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G24" t="inlineStr">
-        <is>
-          <t>['indigo', 'sospol', 'its', 'enak', 'jaman', 'kertu', 'htt']</t>
-        </is>
-      </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>['indigo', 'sospol', 'its', 'enak', 'jaman', 'kertu', 'htt']</t>
+          <t>['indigo', 'sospol', 'enak', 'jaman', 'kertu', 'htt']</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>['indigo', 'sospol', 'enak', 'jaman', 'kertu', 'htt']</t>
         </is>
       </c>
     </row>
@@ -1303,10 +1423,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>20472</v>
+        <v>23923</v>
       </c>
       <c r="C25" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
@@ -1320,17 +1440,22 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>['atuut', 'dong', 'rt', 'bertiana', 'dewan, perwakilan, rakyat', 'pemerintah', 'jangan', 'takut', 'hadapi', 'demo', 'mei']</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G25" t="inlineStr">
-        <is>
-          <t>['atuut', 'donk', 'bertiana', 'dpr', 'pemerintah', 'takut', 'hadapi', 'demo', 'mei']</t>
-        </is>
-      </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>['atuut', 'donk', 'bertiana', 'dpr', 'perintah', 'takut', 'hadap', 'demo', 'mei']</t>
+          <t>['atuut', 'bertiana', 'dewan, perwakilan, rakyat', 'pemerintah', 'takut', 'hadapi', 'demo', 'mei']</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>['atuut', 'bertiana', 'dewan wakil rakyat', 'perintah', 'takut', 'hadap', 'demo', 'mei']</t>
         </is>
       </c>
     </row>
@@ -1339,10 +1464,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>20473</v>
+        <v>23924</v>
       </c>
       <c r="C26" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
@@ -1356,15 +1481,20 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>['rt', 'dw', 'ri']</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 3 samples and 3 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G26" t="inlineStr">
+      <c r="H26" t="inlineStr">
         <is>
           <t>['dw', 'ri']</t>
         </is>
       </c>
-      <c r="H26" t="inlineStr">
+      <c r="I26" t="inlineStr">
         <is>
           <t>['dw', 'ri']</t>
         </is>
@@ -1375,10 +1505,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>20474</v>
+        <v>23925</v>
       </c>
       <c r="C27" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
@@ -1392,15 +1522,20 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>['rt', 'iya', 'sabar', 'ya', 'rt', 'fahri', 'sabar', 'ya', 'pak', 'nanti', 'juga', 'dapat']</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G27" t="inlineStr">
+      <c r="H27" t="inlineStr">
         <is>
           <t>['iya', 'sabar', 'fahri', 'sabar']</t>
         </is>
       </c>
-      <c r="H27" t="inlineStr">
+      <c r="I27" t="inlineStr">
         <is>
           <t>['iya', 'sabar', 'fahri', 'sabar']</t>
         </is>
@@ -1411,10 +1546,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>20475</v>
+        <v>23926</v>
       </c>
       <c r="C28" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
@@ -1428,17 +1563,22 @@
       </c>
       <c r="F28" t="inlineStr">
         <is>
+          <t>['rt', 'komisi, pemberantasan, korupsi', 'bukan', 'kumpulan', 'malaikat', 'siapa', 'yang', 'berani', 'garansi', 'sih', 'novel', 'bersih', 'dari', 'kejahatan', 'ayo', 'tunjukan', 'banget']</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G28" t="inlineStr">
-        <is>
-          <t>['kpk', 'kumpulan', 'malaikat', 'berani', 'garansi', 'novel', 'bersih', 'kejahatan', 'ayoo', 'tunjukkan', 'bat']</t>
-        </is>
-      </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['kpk', 'kumpul', 'malaikat', 'berani', 'garansi', 'novel', 'bersih', 'jahat', 'ayoo', 'tunjuk', 'bat']</t>
+          <t>['komisi, pemberantasan, korupsi', 'kumpulan', 'malaikat', 'berani', 'garansi', 'novel', 'bersih', 'kejahatan', 'ayo', 'tunjukan', 'banget']</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>['komisi berantas korupsi', 'kumpul', 'malaikat', 'berani', 'garansi', 'novel', 'bersih', 'jahat', 'ayo', 'tunjuk', 'banget']</t>
         </is>
       </c>
     </row>
@@ -1447,10 +1587,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>20476</v>
+        <v>23927</v>
       </c>
       <c r="C29" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
@@ -1464,15 +1604,20 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>['rt', 'deradikalisasi']</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 2 samples and 2 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G29" t="inlineStr">
+      <c r="H29" t="inlineStr">
         <is>
           <t>['deradikalisasi']</t>
         </is>
       </c>
-      <c r="H29" t="inlineStr">
+      <c r="I29" t="inlineStr">
         <is>
           <t>['deradikalisasi']</t>
         </is>
@@ -1483,10 +1628,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>20477</v>
+        <v>23928</v>
       </c>
       <c r="C30" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
@@ -1500,17 +1645,22 @@
       </c>
       <c r="F30" t="inlineStr">
         <is>
+          <t>['rt', 'rt', 'media', 'bungkam', 'nih', 'lengserkenampltp']</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 5 samples and 6 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G30" t="inlineStr">
-        <is>
-          <t>['media', 'bungkam', 'niihh', 'lengserkenampltp']</t>
-        </is>
-      </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['media', 'bungkam', 'niihh', 'lengserkenampltp']</t>
+          <t>['media', 'bungkam', 'lengserkenampltp']</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>['media', 'bungkam', 'lengserkenampltp']</t>
         </is>
       </c>
     </row>
@@ -1519,10 +1669,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>20478</v>
+        <v>23929</v>
       </c>
       <c r="C31" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
@@ -1536,17 +1686,22 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>['rt', 'jangan', 'ada', 'teken', 'jokowi', 'jgtapi', 'dia', 'tidak', 'baca', 'partai, keadilan, sejahtera', 'desak', 'polisi', 'periksa', 'jokowi', 'amp', 'ahok', 'soal', 'kasus', 'ups', 'daerah, khusus, ibukota', 'hypertext, transfer, protocol']</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 20 samples and 21 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G31" t="inlineStr">
-        <is>
-          <t>['teken', 'jokowi', 'jgtapi', 'baca', 'pks', 'desak', 'polisi', 'periksa', 'jokowi', 'ahok', 'ups', 'dki', 'http']</t>
-        </is>
-      </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['teken', 'jokowi', 'jgtapi', 'baca', 'pks', 'desak', 'polisi', 'periksa', 'jokowi', 'ahok', 'ups', 'dki', 'http']</t>
+          <t>['teken', 'jokowi', 'jgtapi', 'baca', 'partai, keadilan, sejahtera', 'desak', 'polisi', 'periksa', 'jokowi', 'ahok', 'ups', 'daerah, khusus, ibukota', 'hypertext, transfer, protocol']</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>['teken', 'jokowi', 'jgtapi', 'baca', 'partai adil sejahtera', 'desak', 'polisi', 'periksa', 'jokowi', 'ahok', 'ups', 'daerah khusus ibukota', 'hypertext transfer protocol']</t>
         </is>
       </c>
     </row>
@@ -1555,10 +1710,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>20479</v>
+        <v>23930</v>
       </c>
       <c r="C32" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1572,15 +1727,20 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>['rt', 'kriminalisasi', 'novel', 'baswedan']</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G32" t="inlineStr">
+      <c r="H32" t="inlineStr">
         <is>
           <t>['kriminalisasi', 'novel', 'baswedan']</t>
         </is>
       </c>
-      <c r="H32" t="inlineStr">
+      <c r="I32" t="inlineStr">
         <is>
           <t>['kriminalisasi', 'novel', 'baswedan']</t>
         </is>
@@ -1591,10 +1751,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>20480</v>
+        <v>23931</v>
       </c>
       <c r="C33" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1608,17 +1768,22 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
+          <t>['rt', 'susilo, bambang, yudhoyono', 'tak', 'perlu', 'salahkan', 'pemerintahan', 'saya', 'dulu', 'demokrat', 'tak', 'akan', 'ganggu', 'jokowi']</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G33" t="inlineStr">
-        <is>
-          <t>['sby', 'salahkan', 'pemerintahan', 'demokrat', 'ganggu', 'jokowi']</t>
-        </is>
-      </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['sby', 'salah', 'perintah', 'demokrat', 'ganggu', 'jokowi']</t>
+          <t>['susilo, bambang, yudhoyono', 'salahkan', 'pemerintahan', 'demokrat', 'ganggu', 'jokowi']</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>['susilo bambang yudhoyono', 'salah', 'perintah', 'demokrat', 'ganggu', 'jokowi']</t>
         </is>
       </c>
     </row>
@@ -1627,10 +1792,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>20481</v>
+        <v>23932</v>
       </c>
       <c r="C34" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1644,17 +1809,22 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
+          <t>['jokogagal', 'rt', 'tentang', 'pelantikan', 'bagi', 'sebagai', 'wakpolri', 'oleh']</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G34" t="inlineStr">
-        <is>
-          <t>['jokogagal', 'pelantikan', 'bg', 'wakpolri']</t>
-        </is>
-      </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['jokogagal', 'lantik', 'bg', 'wakpolri']</t>
+          <t>['jokogagal', 'pelantikan', 'wakpolri']</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>['jokogagal', 'lantik', 'wakpolri']</t>
         </is>
       </c>
     </row>
@@ -1663,10 +1833,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>20482</v>
+        <v>23933</v>
       </c>
       <c r="C35" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1680,17 +1850,22 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>['rt', 'bagaimana', 'tentang', 'jokowiikutan', 'diskusi', 'yuk', 'kopas', 'gabung', 'saja', 'ke']</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G35" t="inlineStr">
-        <is>
-          <t>['gimana', 'jokowiikutan', 'diskusi', 'yuk', 'kopas', 'gabung']</t>
-        </is>
-      </c>
       <c r="H35" t="inlineStr">
         <is>
-          <t>['gimana', 'jokowiikutan', 'diskusi', 'yuk', 'kopas', 'gabung']</t>
+          <t>['jokowiikutan', 'diskusi', 'yuk', 'kopas', 'gabung']</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>['jokowiikutan', 'diskusi', 'yuk', 'kopas', 'gabung']</t>
         </is>
       </c>
     </row>
@@ -1699,10 +1874,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>20483</v>
+        <v>23934</v>
       </c>
       <c r="C36" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
@@ -1716,15 +1891,20 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>['rt', 'lelang', 'batu', 'akik', 'ala', 'jauh', 'lebih', 'mulia', 'dan', 'bermanfaat', 'buat', 'anak', 'yatimdaripada', 'lelang', 'harga', 'diri', 'ala']</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 17 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G36" t="inlineStr">
+      <c r="H36" t="inlineStr">
         <is>
           <t>['lelang', 'batu', 'akik', 'ala', 'mulia', 'bermanfaat', 'anak', 'yatimdaripada', 'lelang', 'harga', 'ala']</t>
         </is>
       </c>
-      <c r="H36" t="inlineStr">
+      <c r="I36" t="inlineStr">
         <is>
           <t>['lelang', 'batu', 'akik', 'ala', 'mulia', 'manfaat', 'anak', 'yatimdaripada', 'lelang', 'harga', 'ala']</t>
         </is>
@@ -1735,10 +1915,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>20484</v>
+        <v>23935</v>
       </c>
       <c r="C37" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1752,17 +1932,22 @@
       </c>
       <c r="F37" t="inlineStr">
         <is>
+          <t>['rt', 'bertiana', 'jangan', 'manuver', 'barbar', 'hancurkan', 'komisi, pemberantasan, korupsi']</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G37" t="inlineStr">
-        <is>
-          <t>['bertiana', 'jan', 'manuver', 'barbar', 'hancurkan', 'kpk']</t>
-        </is>
-      </c>
       <c r="H37" t="inlineStr">
         <is>
-          <t>['bertiana', 'jan', 'manuver', 'barbar', 'hancur', 'kpk']</t>
+          <t>['bertiana', 'manuver', 'barbar', 'hancurkan', 'komisi, pemberantasan, korupsi']</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
+        <is>
+          <t>['bertiana', 'manuver', 'barbar', 'hancur', 'komisi berantas korupsi']</t>
         </is>
       </c>
     </row>
@@ -1771,10 +1956,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>20485</v>
+        <v>23936</v>
       </c>
       <c r="C38" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
@@ -1788,17 +1973,22 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>['rt', 'partai', 'di', 'pecah', 'belah', 'ada', 'lagi', 'pssi', 'selanjut', 'nya', 'apa', 'yang', 'di', 'suruh', 'perang', 'dalam', 'negeri', 'orang']</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G38" t="inlineStr">
-        <is>
-          <t>['partai', 'pecah', 'belah', 'pssi', 'selanjut', 'suruh', 'perang', 'negri', 'org']</t>
-        </is>
-      </c>
       <c r="H38" t="inlineStr">
         <is>
-          <t>['partai', 'pecah', 'belah', 'pssi', 'lanjut', 'suruh', 'perang', 'negri', 'org']</t>
+          <t>['partai', 'pecah', 'belah', 'pssi', 'selanjut', 'suruh', 'perang', 'negeri', 'orang']</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>['partai', 'pecah', 'belah', 'pssi', 'lanjut', 'suruh', 'perang', 'negeri', 'orang']</t>
         </is>
       </c>
     </row>
@@ -1807,10 +1997,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>20486</v>
+        <v>23937</v>
       </c>
       <c r="C39" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
@@ -1824,17 +2014,22 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>['rt', 'kalau', 'cumaancam', 'presiden', 'biar', 'reshufle', 'itu', 'bukan', 'revolusi', 'tetapi', 'demo', 'titipan', 'biar', 'dapat', 'jatah']</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G39" t="inlineStr">
-        <is>
-          <t>['cumaancam', 'presiden', 'reshufle', 'bkn', 'revolusi', 'tp', 'demo', 'titipan', 'dpt', 'jatah']</t>
-        </is>
-      </c>
       <c r="H39" t="inlineStr">
         <is>
-          <t>['cumaancam', 'presiden', 'reshufle', 'bkn', 'revolusi', 'tp', 'demo', 'titip', 'dpt', 'jatah']</t>
+          <t>['cumaancam', 'presiden', 'reshufle', 'revolusi', 'demo', 'titipan', 'jatah']</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>['cumaancam', 'presiden', 'reshufle', 'revolusi', 'demo', 'titip', 'jatah']</t>
         </is>
       </c>
     </row>
@@ -1843,10 +2038,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>20487</v>
+        <v>23938</v>
       </c>
       <c r="C40" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D40" t="inlineStr">
         <is>
@@ -1860,15 +2055,20 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>['rt', 'kami', 'tidak', 'terpengaruh', 'oleh', 'apapun', 'andelaina', 'kami', 'terpengaruh', 'oleh', 'keadaan', 'dan', 'kondisi', 'bangsa', 'saat', 'ini']</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G40" t="inlineStr">
+      <c r="H40" t="inlineStr">
         <is>
           <t>['terpengaruh', 'apapun', 'andelaina', 'terpengaruh', 'kondisi', 'bangsa']</t>
         </is>
       </c>
-      <c r="H40" t="inlineStr">
+      <c r="I40" t="inlineStr">
         <is>
           <t>['pengaruh', 'apa', 'andelaina', 'pengaruh', 'kondisi', 'bangsa']</t>
         </is>
@@ -1879,10 +2079,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>20488</v>
+        <v>23939</v>
       </c>
       <c r="C41" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D41" t="inlineStr">
         <is>
@@ -1896,17 +2096,22 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>['dua', 'kader', 'partai, demokrasi, indonesia', 'jadi', 'komisaris', 'badan, usaha, milik, negara', 'politik', 'balas', 'budi', 'jokowi', 'masih', 'terus', 'berlanjut']</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G41" t="inlineStr">
-        <is>
-          <t>['kader', 'pdi', 'komisaris', 'bumn', 'politik', 'balas', 'budi', 'jokowi', 'berlanjut']</t>
-        </is>
-      </c>
       <c r="H41" t="inlineStr">
         <is>
-          <t>['kader', 'pdi', 'komisaris', 'bumn', 'politik', 'balas', 'budi', 'jokowi', 'lanjut']</t>
+          <t>['kader', 'partai, demokrasi, indonesia', 'komisaris', 'badan, usaha, milik, negara', 'politik', 'balas', 'budi', 'jokowi', 'berlanjut']</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>['kader', 'partai demokrasi indonesia', 'komisaris', 'badan usaha milik negara', 'politik', 'balas', 'budi', 'jokowi', 'lanjut']</t>
         </is>
       </c>
     </row>
@@ -1915,10 +2120,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>20489</v>
+        <v>23940</v>
       </c>
       <c r="C42" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D42" t="inlineStr">
         <is>
@@ -1932,17 +2137,22 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>['rt', 'tarik', 'pelajaran', 'bagaimana', 'komisi, pemberantasan, korupsi', 'institusi', 'lex', 'specialis', 'ini', 'dikriminalisasi', 'oleh', 'badan, reserse, kriminal', 'dan', 'konon', 'jokowi', 'hanya', 'petugas', 'pak']</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 18 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G42" t="inlineStr">
-        <is>
-          <t>['tarik', 'pelajaran', 'bgmn', 'kpk', 'institusi', 'lex', 'specialis', 'dikriminalisasi', 'bareskrim', 'konon', 'jokowi', 'petugas', 'pa']</t>
-        </is>
-      </c>
       <c r="H42" t="inlineStr">
         <is>
-          <t>['tarik', 'ajar', 'bgmn', 'kpk', 'institusi', 'lex', 'specialis', 'kriminalisasi', 'bareskrim', 'konon', 'jokowi', 'tugas', 'pa']</t>
+          <t>['tarik', 'pelajaran', 'komisi, pemberantasan, korupsi', 'institusi', 'lex', 'specialis', 'dikriminalisasi', 'badan, reserse, kriminal', 'konon', 'jokowi', 'petugas']</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>['tarik', 'ajar', 'komisi berantas korupsi', 'institusi', 'lex', 'specialis', 'kriminalisasi', 'badan reserse kriminal', 'konon', 'jokowi', 'tugas']</t>
         </is>
       </c>
     </row>
@@ -1951,10 +2161,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>20490</v>
+        <v>23941</v>
       </c>
       <c r="C43" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D43" t="inlineStr">
         <is>
@@ -1968,17 +2178,22 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>['rt', 'wkwk', 'rt', 'kopas', 'wkwk', 'rt', 'makin', 'diminati', 'prestasi', 'ahok', 'untuk', 'jakarta', 'nol', 'by']</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G43" t="inlineStr">
-        <is>
-          <t>['lol', 'kopas', 'lol', 'diminati', 'prestasi', 'ahok', 'jakarta', 'nol', 'by']</t>
-        </is>
-      </c>
       <c r="H43" t="inlineStr">
         <is>
-          <t>['lol', 'kopas', 'lol', 'mati', 'prestasi', 'ahok', 'jakarta', 'nol', 'by']</t>
+          <t>['wkwk', 'kopas', 'wkwk', 'diminati', 'prestasi', 'ahok', 'jakarta', 'nol', 'by']</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>['wkwk', 'kopas', 'wkwk', 'mati', 'prestasi', 'ahok', 'jakarta', 'nol', 'by']</t>
         </is>
       </c>
     </row>
@@ -1987,10 +2202,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>20491</v>
+        <v>23942</v>
       </c>
       <c r="C44" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D44" t="inlineStr">
         <is>
@@ -2004,17 +2219,22 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>['wkwk', 'rt', 'makin', 'diminati', 'prestasi', 'ahok', 'untuk', 'jakarta', 'nol', 'by', 'dari']</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G44" t="inlineStr">
-        <is>
-          <t>['lol', 'diminati', 'prestasi', 'ahok', 'jakarta', 'nol', 'by']</t>
-        </is>
-      </c>
       <c r="H44" t="inlineStr">
         <is>
-          <t>['lol', 'mati', 'prestasi', 'ahok', 'jakarta', 'nol', 'by']</t>
+          <t>['wkwk', 'diminati', 'prestasi', 'ahok', 'jakarta', 'nol', 'by']</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>['wkwk', 'mati', 'prestasi', 'ahok', 'jakarta', 'nol', 'by']</t>
         </is>
       </c>
     </row>
@@ -2023,10 +2243,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>20492</v>
+        <v>23943</v>
       </c>
       <c r="C45" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D45" t="inlineStr">
         <is>
@@ -2040,17 +2260,22 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>['rt', 'said', 'ahkelamaankeburu', 'indonesia', 'bubar', 'kecewa', 'icw', 'prediksi', 'pemerintahan', 'jokowi', 'hanya', 'berumur', 'setahun']</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G45" t="inlineStr">
-        <is>
-          <t>['said', 'ahkelamaankeburu', 'indo', 'bubar', 'kecewa', 'icw', 'prediksi', 'pemerintahan', 'jokowi', 'berumur', 'setahun']</t>
-        </is>
-      </c>
       <c r="H45" t="inlineStr">
         <is>
-          <t>['said', 'ahkelamaankeburu', 'indo', 'bubar', 'kecewa', 'icw', 'prediksi', 'perintah', 'jokowi', 'umur', 'tahun']</t>
+          <t>['said', 'ahkelamaankeburu', 'indonesia', 'bubar', 'kecewa', 'icw', 'prediksi', 'pemerintahan', 'jokowi', 'berumur', 'setahun']</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>['said', 'ahkelamaankeburu', 'indonesia', 'bubar', 'kecewa', 'icw', 'prediksi', 'perintah', 'jokowi', 'umur', 'tahun']</t>
         </is>
       </c>
     </row>
@@ -2059,10 +2284,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>20493</v>
+        <v>23944</v>
       </c>
       <c r="C46" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -2076,15 +2301,20 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>['rt', 'hidayat', 'hasbunallah', 'wanikmal', 'wakilnikmal', 'maula', 'wanikman', 'nashir']</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G46" t="inlineStr">
+      <c r="H46" t="inlineStr">
         <is>
           <t>['hidayat', 'hasbunallah', 'wanikmal', 'wakilnikmal', 'maula', 'wanikman', 'nashir']</t>
         </is>
       </c>
-      <c r="H46" t="inlineStr">
+      <c r="I46" t="inlineStr">
         <is>
           <t>['hidayat', 'hasbunallah', 'wanikmal', 'wakilnikmal', 'maula', 'wanikman', 'nashir']</t>
         </is>
@@ -2095,10 +2325,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>20494</v>
+        <v>23945</v>
       </c>
       <c r="C47" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -2112,15 +2342,20 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>['dijajahmajikansijoko', 'rt', 'kopas', 'berani', 'protes', 'raskin', 'hilang']</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 7 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G47" t="inlineStr">
+      <c r="H47" t="inlineStr">
         <is>
           <t>['dijajahmajikansijoko', 'kopas', 'berani', 'protes', 'raskin', 'hilang']</t>
         </is>
       </c>
-      <c r="H47" t="inlineStr">
+      <c r="I47" t="inlineStr">
         <is>
           <t>['dijajahmajikansijoko', 'kopas', 'berani', 'protes', 'raskin', 'hilang']</t>
         </is>
@@ -2131,10 +2366,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>20495</v>
+        <v>23946</v>
       </c>
       <c r="C48" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D48" t="inlineStr">
         <is>
@@ -2148,17 +2383,22 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
+          <t>['rt', 'bagaimana', 'rasanya', 'bebas', 'membully', 'akan', 'tetapi', 'yang', 'di', 'bully', 'tidak', 'melakukan', 'pemblokiran', 'seperti', 'yang', 'sering', 'di', 'lakukan', 'aktivis']</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G48" t="inlineStr">
-        <is>
-          <t>['gimana', 'bebas', 'membully', 'bully', 'pemblokiran', 'lakukan', 'aktivis']</t>
-        </is>
-      </c>
       <c r="H48" t="inlineStr">
         <is>
-          <t>['gimana', 'bebas', 'membully', 'bully', 'blokir', 'laku', 'aktivis']</t>
+          <t>['bebas', 'membully', 'bully', 'pemblokiran', 'lakukan', 'aktivis']</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>['bebas', 'membully', 'bully', 'blokir', 'laku', 'aktivis']</t>
         </is>
       </c>
     </row>
@@ -2167,10 +2407,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>20496</v>
+        <v>23947</v>
       </c>
       <c r="C49" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D49" t="inlineStr">
         <is>
@@ -2184,15 +2424,20 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
+          <t>['jilboobs', 'rt', 'sempit', 'logika', 'amp', 'perbedaan', 'makna', 'kaum', 'jil', 'berpikir', 'bicara', 'by', 'ary']</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G49" t="inlineStr">
+      <c r="H49" t="inlineStr">
         <is>
           <t>['jilboobs', 'sempit', 'logika', 'perbedaan', 'makna', 'kaum', 'jil', 'berpikir', 'bicara', 'by', 'ary']</t>
         </is>
       </c>
-      <c r="H49" t="inlineStr">
+      <c r="I49" t="inlineStr">
         <is>
           <t>['jilboobs', 'sempit', 'logika', 'beda', 'makna', 'kaum', 'jil', 'pikir', 'bicara', 'by', 'ary']</t>
         </is>
@@ -2203,10 +2448,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>20497</v>
+        <v>23948</v>
       </c>
       <c r="C50" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D50" t="inlineStr">
         <is>
@@ -2220,17 +2465,22 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
+          <t>['wkwk', 'rt', 'once', 'upon', 'time', 'at', 'operation', 'room']</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G50" t="inlineStr">
-        <is>
-          <t>['lol', 'once', 'upon', 'time', 'at', 'operation', 'room']</t>
-        </is>
-      </c>
       <c r="H50" t="inlineStr">
         <is>
-          <t>['lol', 'once', 'upon', 'time', 'at', 'operation', 'room']</t>
+          <t>['wkwk', 'once', 'upon', 'time', 'at', 'operation', 'room']</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>['wkwk', 'once', 'upon', 'time', 'at', 'operation', 'room']</t>
         </is>
       </c>
     </row>
@@ -2239,10 +2489,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>20498</v>
+        <v>23949</v>
       </c>
       <c r="C51" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D51" t="inlineStr">
         <is>
@@ -2256,17 +2506,22 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>['dikibulinsijoko', 'rt', 'harga', 'beras', 'naik', 'kok', 'tidak', 'ada', 'yang', 'demo', 'sih', 'giliran', 'bahan, bakar, minyak', 'yang', 'naik', 'kamu', 'sok', 'jadi', 'pahlawan']</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G51" t="inlineStr">
-        <is>
-          <t>['dikibulinsijoko', 'harga', 'beras', 'demo', 'giliran', 'bbm', 'ente', 'sok', 'pahlawan']</t>
-        </is>
-      </c>
       <c r="H51" t="inlineStr">
         <is>
-          <t>['dikibulinsijoko', 'harga', 'beras', 'demo', 'gilir', 'bbm', 'ente', 'sok', 'pahlawan']</t>
+          <t>['dikibulinsijoko', 'harga', 'beras', 'demo', 'giliran', 'bahan, bakar, minyak', 'sok', 'pahlawan']</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>['dikibulinsijoko', 'harga', 'beras', 'demo', 'gilir', 'bahan bakar minyak', 'sok', 'pahlawan']</t>
         </is>
       </c>
     </row>
@@ -2275,10 +2530,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>20499</v>
+        <v>23950</v>
       </c>
       <c r="C52" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D52" t="inlineStr">
         <is>
@@ -2292,15 +2547,20 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>['rt', 'australia', 'biang', 'nya', 'rayap', 'yang', 'suka', 'menggerogoti', 'negara', 'ini', 'perlahanhubungan', 'baik', 'akan', 'terjalin', 'jika', 'kedua', 'negara', 'salin']</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G52" t="inlineStr">
+      <c r="H52" t="inlineStr">
         <is>
           <t>['australia', 'biang', 'rayap', 'suka', 'menggerogoti', 'negara', 'perlahanhubungan', 'terjalin', 'negara', 'salin']</t>
         </is>
       </c>
-      <c r="H52" t="inlineStr">
+      <c r="I52" t="inlineStr">
         <is>
           <t>['australia', 'biang', 'rayap', 'suka', 'gerogot', 'negara', 'perlahanhubungan', 'jalin', 'negara', 'salin']</t>
         </is>
@@ -2311,10 +2571,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>20500</v>
+        <v>23951</v>
       </c>
       <c r="C53" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D53" t="inlineStr">
         <is>
@@ -2328,17 +2588,22 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>['wkwk', 'rt', 'wadih', 'banyak', 'program', 'jokowihanya', 'tol', 'laut', 'yang', 'sudah', 'di', 'realisasikan', 'televisi']</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G53" t="inlineStr">
-        <is>
-          <t>['lol', 'wadih', 'program', 'jokowihanya', 'tol', 'laut', 'realisasikan', 'tv']</t>
-        </is>
-      </c>
       <c r="H53" t="inlineStr">
         <is>
-          <t>['lol', 'wadih', 'program', 'jokowihanya', 'tol', 'laut', 'realisasi', 'tv']</t>
+          <t>['wkwk', 'wadih', 'program', 'jokowihanya', 'tol', 'laut', 'realisasikan', 'televisi']</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>['wkwk', 'wadih', 'program', 'jokowihanya', 'tol', 'laut', 'realisasi', 'televisi']</t>
         </is>
       </c>
     </row>
@@ -2347,10 +2612,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>20501</v>
+        <v>23952</v>
       </c>
       <c r="C54" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D54" t="inlineStr">
         <is>
@@ -2364,17 +2629,22 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>['rt', 'kami', 'adalah', 'kaum', 'yang', 'allah', 'muliakan', 'dengan', 'islam', 'maka', 'kami', 'tidak', 'akan', 'mencari', 'kemuliaan', 'selain', 'dengan', 'islam', 'umar']</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G54" t="inlineStr">
-        <is>
-          <t>['kaum', 'alloh', 'muliakan', 'islam', 'mencari', 'kemuliaan', 'islam', 'umar']</t>
-        </is>
-      </c>
       <c r="H54" t="inlineStr">
         <is>
-          <t>['kaum', 'alloh', 'mulia', 'islam', 'cari', 'mulia', 'islam', 'umar']</t>
+          <t>['kaum', 'allah', 'muliakan', 'islam', 'mencari', 'kemuliaan', 'islam', 'umar']</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>['kaum', 'allah', 'mulia', 'islam', 'cari', 'mulia', 'islam', 'umar']</t>
         </is>
       </c>
     </row>
@@ -2383,10 +2653,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>20502</v>
+        <v>23953</v>
       </c>
       <c r="C55" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D55" t="inlineStr">
         <is>
@@ -2400,17 +2670,22 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>['wkwk', 'pernyataan', 'bumerang', 'ary']</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 4 samples and 4 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G55" t="inlineStr">
-        <is>
-          <t>['lol', 'statement', 'bumerang', 'ary']</t>
-        </is>
-      </c>
       <c r="H55" t="inlineStr">
         <is>
-          <t>['lol', 'statement', 'bumerang', 'ary']</t>
+          <t>['wkwk', 'pernyataan', 'bumerang', 'ary']</t>
+        </is>
+      </c>
+      <c r="I55" t="inlineStr">
+        <is>
+          <t>['wkwk', 'nyata', 'bumerang', 'ary']</t>
         </is>
       </c>
     </row>
@@ -2419,10 +2694,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>20503</v>
+        <v>23954</v>
       </c>
       <c r="C56" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -2436,15 +2711,20 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>['intinya', 'rt', 'kopas', 'esemka', 'juga', 'cuma', 'nempelin', 'mesin', 'doang']</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G56" t="inlineStr">
+      <c r="H56" t="inlineStr">
         <is>
           <t>['intinya', 'kopas', 'esemka', 'nempelin', 'mesin', 'doang']</t>
         </is>
       </c>
-      <c r="H56" t="inlineStr">
+      <c r="I56" t="inlineStr">
         <is>
           <t>['inti', 'kopas', 'esemka', 'nempelin', 'mesin', 'doang']</t>
         </is>
@@ -2455,10 +2735,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>20504</v>
+        <v>23955</v>
       </c>
       <c r="C57" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
@@ -2472,17 +2752,22 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
+          <t>['wkwk', 'berkata', 'selalu', 'ada', 'suprise', 'deh', 'besok', 'jokowi', 'bikin', 'dagelan', 'apa', 'lagi', 'ya']</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 13 samples and 13 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G57" t="inlineStr">
-        <is>
-          <t>['lol', 'suprise', 'deh', 'besok', 'jokowi', 'dagelan']</t>
-        </is>
-      </c>
       <c r="H57" t="inlineStr">
         <is>
-          <t>['lol', 'suprise', 'deh', 'besok', 'jokowi', 'dagel']</t>
+          <t>['wkwk', 'suprise', 'deh', 'besok', 'jokowi', 'dagelan']</t>
+        </is>
+      </c>
+      <c r="I57" t="inlineStr">
+        <is>
+          <t>['wkwk', 'suprise', 'deh', 'besok', 'jokowi', 'dagel']</t>
         </is>
       </c>
     </row>
@@ -2491,10 +2776,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>20505</v>
+        <v>23956</v>
       </c>
       <c r="C58" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D58" t="inlineStr">
         <is>
@@ -2508,17 +2793,22 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
+          <t>['wkwk', 'presiden', 'wayang', 'kulit', 'dalangnya', 'luhuthendropaloh', 'sinden', 'mega', 'us', 'siapa', 'presiden', 'sekarang']</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 11 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G58" t="inlineStr">
-        <is>
-          <t>['lol', 'presiden', 'wayang', 'kulit', 'dalangnya', 'luhuthendropaloh', 'sinden', 'mega', 'us', 'presiden']</t>
-        </is>
-      </c>
       <c r="H58" t="inlineStr">
         <is>
-          <t>['lol', 'presiden', 'wayang', 'kulit', 'dalang', 'luhuthendropaloh', 'sinden', 'mega', 'us', 'presiden']</t>
+          <t>['wkwk', 'presiden', 'wayang', 'kulit', 'dalangnya', 'luhuthendropaloh', 'sinden', 'mega', 'us', 'presiden']</t>
+        </is>
+      </c>
+      <c r="I58" t="inlineStr">
+        <is>
+          <t>['wkwk', 'presiden', 'wayang', 'kulit', 'dalang', 'luhuthendropaloh', 'sinden', 'mega', 'us', 'presiden']</t>
         </is>
       </c>
     </row>
@@ -2527,10 +2817,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>20506</v>
+        <v>23957</v>
       </c>
       <c r="C59" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
@@ -2544,17 +2834,22 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
+          <t>['nah', 'rt', 'saat', 'ini', 'data', 'kecurangan', 'pemilihan, presiden', 'yang', 'dipegang', 'budi', 'gunawan', 'segera', 'dikeluarkan', 'ungkap', 'umar']</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G59" t="inlineStr">
-        <is>
-          <t>['data', 'kecurangan', 'pilpres', 'dipegang', 'budi', 'gunawan', 'dikeluarkan', 'umar']</t>
-        </is>
-      </c>
       <c r="H59" t="inlineStr">
         <is>
-          <t>['data', 'curang', 'pilpres', 'pegang', 'budi', 'gunawan', 'keluar', 'umar']</t>
+          <t>['data', 'kecurangan', 'pemilihan, presiden', 'dipegang', 'budi', 'gunawan', 'dikeluarkan', 'umar']</t>
+        </is>
+      </c>
+      <c r="I59" t="inlineStr">
+        <is>
+          <t>['data', 'curang', 'pilih presiden', 'pegang', 'budi', 'gunawan', 'keluar', 'umar']</t>
         </is>
       </c>
     </row>
@@ -2563,10 +2858,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>20507</v>
+        <v>23958</v>
       </c>
       <c r="C60" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
@@ -2580,17 +2875,22 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
+          <t>['wkwk', 'esemka', 'juga', 'buatan', 'cina', 'podo', 'saja', 'esemka', 'diganti', 'proton', 'jokowi', 'tidak', 'dukung', 'kemampuan', 'bangsa']</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G60" t="inlineStr">
-        <is>
-          <t>['lol', 'esemka', 'jg', 'buatan', 'china', 'podo', 'wae', 'esemka', 'diganti', 'proton', 'jokowi', 'dukung', 'kemampuan', 'bangsa']</t>
-        </is>
-      </c>
       <c r="H60" t="inlineStr">
         <is>
-          <t>['lol', 'esemka', 'jg', 'buat', 'china', 'podo', 'wae', 'esemka', 'ganti', 'proton', 'jokowi', 'dukung', 'mampu', 'bangsa']</t>
+          <t>['wkwk', 'esemka', 'buatan', 'cina', 'podo', 'esemka', 'diganti', 'proton', 'jokowi', 'dukung', 'kemampuan', 'bangsa']</t>
+        </is>
+      </c>
+      <c r="I60" t="inlineStr">
+        <is>
+          <t>['wkwk', 'esemka', 'buat', 'cina', 'podo', 'esemka', 'ganti', 'proton', 'jokowi', 'dukung', 'mampu', 'bangsa']</t>
         </is>
       </c>
     </row>
@@ -2599,10 +2899,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>20508</v>
+        <v>23959</v>
       </c>
       <c r="C61" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
@@ -2616,15 +2916,20 @@
       </c>
       <c r="F61" t="inlineStr">
         <is>
+          <t>['rt', 'sampai', 'di', 'mana', 'permainan', 'perang', 'perangan', 'initentu', 'saja', 'sampai', 'semua', 'balas', 'jasa', 'benar', 'aman', 'terkendali']</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 15 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G61" t="inlineStr">
+      <c r="H61" t="inlineStr">
         <is>
           <t>['permainan', 'perang', 'perangan', 'initentu', 'balas', 'jasa', 'aman', 'terkendali']</t>
         </is>
       </c>
-      <c r="H61" t="inlineStr">
+      <c r="I61" t="inlineStr">
         <is>
           <t>['main', 'perang', 'perang', 'initentu', 'balas', 'jasa', 'aman', 'kendali']</t>
         </is>
@@ -2635,10 +2940,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>20509</v>
+        <v>23960</v>
       </c>
       <c r="C62" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
@@ -2652,15 +2957,20 @@
       </c>
       <c r="F62" t="inlineStr">
         <is>
+          <t>['natsir', 'bangsa', 'sakit', 'itu', 'presidennye', 'jongos', 'asingaseng', 'penipuulung', 'tidak', 'jelas', 'asalusulnya', 'mika']</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G62" t="inlineStr">
+      <c r="H62" t="inlineStr">
         <is>
           <t>['natsir', 'bangsa', 'sakit', 'presidennye', 'jongos', 'asingaseng', 'penipuulung', 'asalusulnya', 'mika']</t>
         </is>
       </c>
-      <c r="H62" t="inlineStr">
+      <c r="I62" t="inlineStr">
         <is>
           <t>['natsir', 'bangsa', 'sakit', 'presidennye', 'jongos', 'asingaseng', 'penipuulung', 'asalusulnya', 'mika']</t>
         </is>
@@ -2671,10 +2981,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>20510</v>
+        <v>23961</v>
       </c>
       <c r="C63" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D63" t="inlineStr">
         <is>
@@ -2688,17 +2998,22 @@
       </c>
       <c r="F63" t="inlineStr">
         <is>
+          <t>['wkwk', 'esemka', 'mobilnasional', 'kerja, sama', 'proton', 'jokowi', 'disebut', 'pembohongbesar']</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G63" t="inlineStr">
-        <is>
-          <t>['lol', 'esemka', 'mobilnasional', 'kerjasama', 'proton', 'jkw', 'pembohongbesar']</t>
-        </is>
-      </c>
       <c r="H63" t="inlineStr">
         <is>
-          <t>['lol', 'esemka', 'mobilnasional', 'kerjasama', 'proton', 'jkw', 'pembohongbesar']</t>
+          <t>['wkwk', 'esemka', 'mobilnasional', 'kerja, sama', 'proton', 'jokowi', 'pembohongbesar']</t>
+        </is>
+      </c>
+      <c r="I63" t="inlineStr">
+        <is>
+          <t>['wkwk', 'esemka', 'mobilnasional', 'kerja sama', 'proton', 'jokowi', 'pembohongbesar']</t>
         </is>
       </c>
     </row>
@@ -2707,10 +3022,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>20511</v>
+        <v>23962</v>
       </c>
       <c r="C64" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D64" t="inlineStr">
         <is>
@@ -2724,17 +3039,22 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
+          <t>['rt', 'ri', 'ayo', 'dukung', 'sebagai', 'ketua', 'ri', 'menggantikan', 'abraham', 'samad', 'yang', 'setuju', 'cukup', 'rt', 'twit', 'ini']</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 16 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G64" t="inlineStr">
-        <is>
-          <t>['ri', 'ayo', 'dukung', 'ketua', 'ri', 'menggantikan', 'abraham', 'samad', 'setuju', 'tweet']</t>
-        </is>
-      </c>
       <c r="H64" t="inlineStr">
         <is>
-          <t>['ri', 'ayo', 'dukung', 'ketua', 'ri', 'ganti', 'abraham', 'samad', 'tuju', 'tweet']</t>
+          <t>['ri', 'ayo', 'dukung', 'ketua', 'ri', 'menggantikan', 'abraham', 'samad', 'setuju', 'twit']</t>
+        </is>
+      </c>
+      <c r="I64" t="inlineStr">
+        <is>
+          <t>['ri', 'ayo', 'dukung', 'ketua', 'ri', 'ganti', 'abraham', 'samad', 'tuju', 'twit']</t>
         </is>
       </c>
     </row>
@@ -2743,10 +3063,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>20512</v>
+        <v>23963</v>
       </c>
       <c r="C65" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D65" t="inlineStr">
         <is>
@@ -2760,17 +3080,22 @@
       </c>
       <c r="F65" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 17 samples and 19 outcomes&gt;</t>
+          <t>['yang', 'marah', 'yang', 'hoby', 'zinah', 'kali', 'rt', 'orang', 'yang', 'waras', 'lawan', 'wacana', 'tes', 'keperawanan', 'praktik', 'yang', 'dilarang', 'oleh', 'who']</t>
         </is>
       </c>
       <c r="G65" t="inlineStr">
         <is>
-          <t>['marah', 'hoby', 'zinah', 'kale', 'orang', 'waras', 'lawan', 'wacana', 'tes', 'keperawanan', 'praktek', 'dilarang', 'who']</t>
+          <t>&lt;FreqDist with 16 samples and 19 outcomes&gt;</t>
         </is>
       </c>
       <c r="H65" t="inlineStr">
         <is>
-          <t>['marah', 'hoby', 'zinah', 'kale', 'orang', 'waras', 'lawan', 'wacana', 'tes', 'perawan', 'praktek', 'larang', 'who']</t>
+          <t>['marah', 'hoby', 'zinah', 'kali', 'orang', 'waras', 'lawan', 'wacana', 'tes', 'keperawanan', 'praktik', 'dilarang', 'who']</t>
+        </is>
+      </c>
+      <c r="I65" t="inlineStr">
+        <is>
+          <t>['marah', 'hoby', 'zinah', 'kali', 'orang', 'waras', 'lawan', 'wacana', 'tes', 'perawan', 'praktik', 'larang', 'who']</t>
         </is>
       </c>
     </row>
@@ -2779,10 +3104,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>20513</v>
+        <v>23964</v>
       </c>
       <c r="C66" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -2796,15 +3121,20 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
+          <t>['rt', 'itu', 'rt', 'proton', 'efektif', 'untuk', 'pengalihan', 'isu']</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 7 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G66" t="inlineStr">
+      <c r="H66" t="inlineStr">
         <is>
           <t>['proton', 'efektif', 'pengalihan', 'isu']</t>
         </is>
       </c>
-      <c r="H66" t="inlineStr">
+      <c r="I66" t="inlineStr">
         <is>
           <t>['proton', 'efektif', 'alih', 'isu']</t>
         </is>
@@ -2815,10 +3145,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>20514</v>
+        <v>23965</v>
       </c>
       <c r="C67" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D67" t="inlineStr">
         <is>
@@ -2832,17 +3162,22 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
+          <t>['wkwk', 'ahmad', 'top', 'genius', 'intelligence, quotient', 'berbintang', 'mungkin', 'mobil, nasional', 'itu', 'kepanjangannya', 'mobil', 'buat', 'nasib', 'sukarelawan']</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G67" t="inlineStr">
-        <is>
-          <t>['lol', 'ahmad', 'top', 'genius', 'iq', 'berbintang', 'mobnas', 'kepanjangannya', 'mobil', 'nasib', 'sukarelawan']</t>
-        </is>
-      </c>
       <c r="H67" t="inlineStr">
         <is>
-          <t>['lol', 'ahmad', 'top', 'genius', 'iq', 'bintang', 'mobnas', 'panjang', 'mobil', 'nasib', 'sukarelawan']</t>
+          <t>['wkwk', 'ahmad', 'top', 'genius', 'intelligence, quotient', 'berbintang', 'mobil, nasional', 'kepanjangannya', 'mobil', 'nasib', 'sukarelawan']</t>
+        </is>
+      </c>
+      <c r="I67" t="inlineStr">
+        <is>
+          <t>['wkwk', 'ahmad', 'top', 'genius', 'intelligence quotient', 'bintang', 'mobil nasional', 'panjang', 'mobil', 'nasib', 'sukarelawan']</t>
         </is>
       </c>
     </row>
@@ -2851,10 +3186,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>20515</v>
+        <v>23966</v>
       </c>
       <c r="C68" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D68" t="inlineStr">
         <is>
@@ -2868,17 +3203,22 @@
       </c>
       <c r="F68" t="inlineStr">
         <is>
+          <t>['rt', 'hidayat', 'kepolisian, republik, indonesia', 'sudah', 'menjadi', 'mafia', 'penegak', 'kriminal']</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 8 samples and 8 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G68" t="inlineStr">
-        <is>
-          <t>['hidayat', 'polri', 'mafia', 'penegak', 'kriminal']</t>
-        </is>
-      </c>
       <c r="H68" t="inlineStr">
         <is>
-          <t>['hidayat', 'polri', 'mafia', 'tegak', 'kriminal']</t>
+          <t>['hidayat', 'kepolisian, republik, indonesia', 'mafia', 'penegak', 'kriminal']</t>
+        </is>
+      </c>
+      <c r="I68" t="inlineStr">
+        <is>
+          <t>['hidayat', 'polisi republik indonesia', 'mafia', 'tegak', 'kriminal']</t>
         </is>
       </c>
     </row>
@@ -2887,10 +3227,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>20516</v>
+        <v>23967</v>
       </c>
       <c r="C69" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D69" t="inlineStr">
         <is>
@@ -2904,17 +3244,22 @@
       </c>
       <c r="F69" t="inlineStr">
         <is>
+          <t>['rt', 'wkwk', 'sampai', 'di', 'indonesia', 'dijual', 'dengan', 'merek', 'isabella']</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G69" t="inlineStr">
-        <is>
-          <t>['lol', 'indonesia', 'dijual', 'merek', 'isabella']</t>
-        </is>
-      </c>
       <c r="H69" t="inlineStr">
         <is>
-          <t>['lol', 'indonesia', 'jual', 'merek', 'isabella']</t>
+          <t>['wkwk', 'indonesia', 'dijual', 'merek', 'isabella']</t>
+        </is>
+      </c>
+      <c r="I69" t="inlineStr">
+        <is>
+          <t>['wkwk', 'indonesia', 'jual', 'merek', 'isabella']</t>
         </is>
       </c>
     </row>
@@ -2923,10 +3268,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>20517</v>
+        <v>23968</v>
       </c>
       <c r="C70" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -2940,17 +3285,22 @@
       </c>
       <c r="F70" t="inlineStr">
         <is>
+          <t>['rt', 'kopas', 'kembalikan', 'kepolisian, republik, indonesia', 'dan', 'komisi, pemberantasan, korupsi', 'ke', 'jalan', 'yang', 'benar']</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G70" t="inlineStr">
-        <is>
-          <t>['kopas', 'kembalikan', 'polri', 'kpk', 'jalan']</t>
-        </is>
-      </c>
       <c r="H70" t="inlineStr">
         <is>
-          <t>['kopas', 'kembali', 'polri', 'kpk', 'jalan']</t>
+          <t>['kopas', 'kembalikan', 'kepolisian, republik, indonesia', 'komisi, pemberantasan, korupsi', 'jalan']</t>
+        </is>
+      </c>
+      <c r="I70" t="inlineStr">
+        <is>
+          <t>['kopas', 'kembali', 'polisi republik indonesia', 'komisi berantas korupsi', 'jalan']</t>
         </is>
       </c>
     </row>
@@ -2959,10 +3309,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>20518</v>
+        <v>23969</v>
       </c>
       <c r="C71" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
@@ -2976,17 +3326,22 @@
       </c>
       <c r="F71" t="inlineStr">
         <is>
+          <t>['kembalikan', 'kepolisian, republik, indonesia', 'ke', 'depdagri', 'rt', 'buang', 'saja', 'ke', 'laut', 'samad', 'tak', 'layak', 'mundur', 'harus', 'pecat']</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G71" t="inlineStr">
-        <is>
-          <t>['kembalikan', 'polri', 'depdagri', 'buang', 'laut', 'samad', 'layak', 'mundur', 'pecat']</t>
-        </is>
-      </c>
       <c r="H71" t="inlineStr">
         <is>
-          <t>['kembali', 'polri', 'depdagri', 'buang', 'laut', 'samad', 'layak', 'mundur', 'pecat']</t>
+          <t>['kembalikan', 'kepolisian, republik, indonesia', 'depdagri', 'buang', 'laut', 'samad', 'layak', 'mundur', 'pecat']</t>
+        </is>
+      </c>
+      <c r="I71" t="inlineStr">
+        <is>
+          <t>['kembali', 'polisi republik indonesia', 'depdagri', 'buang', 'laut', 'samad', 'layak', 'mundur', 'pecat']</t>
         </is>
       </c>
     </row>
@@ -2995,10 +3350,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>20519</v>
+        <v>23970</v>
       </c>
       <c r="C72" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D72" t="inlineStr">
         <is>
@@ -3012,17 +3367,22 @@
       </c>
       <c r="F72" t="inlineStr">
         <is>
+          <t>['rt', 'paseksuardika', 'komisi, nasional', 'ham', 'akan', 'beberkan', 'kriminilasi', 'komisi, pemberantasan, korupsi', 'di', 'dewan, perwakilan, rakyat', 'berebut', 'panggung']</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 12 samples and 12 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G72" t="inlineStr">
-        <is>
-          <t>['paseksuardika', 'komnas', 'ham', 'beberkan', 'kriminilasi', 'kpk', 'dpr', 'berebut', 'panggung']</t>
-        </is>
-      </c>
       <c r="H72" t="inlineStr">
         <is>
-          <t>['paseksuardika', 'komnas', 'ham', 'kan', 'kriminilasi', 'kpk', 'dpr', 'rebut', 'panggung']</t>
+          <t>['paseksuardika', 'komisi, nasional', 'ham', 'beberkan', 'kriminilasi', 'komisi, pemberantasan, korupsi', 'dewan, perwakilan, rakyat', 'berebut', 'panggung']</t>
+        </is>
+      </c>
+      <c r="I72" t="inlineStr">
+        <is>
+          <t>['paseksuardika', 'komisi nasional', 'ham', 'kan', 'kriminilasi', 'komisi berantas korupsi', 'dewan wakil rakyat', 'rebut', 'panggung']</t>
         </is>
       </c>
     </row>
@@ -3031,10 +3391,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>20520</v>
+        <v>23971</v>
       </c>
       <c r="C73" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D73" t="inlineStr">
         <is>
@@ -3048,15 +3408,20 @@
       </c>
       <c r="F73" t="inlineStr">
         <is>
+          <t>['rt', 'simpatisan', 'bodoh', 'di', 'ibaratkan', 'orang', 'orangan', 'sawahtidak', 'menyadari', 'usai', 'panen', 'mereka', 'hanya', 'akan', 'ikut', 'di', 'bakar', 'bersama']</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 17 samples and 18 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G73" t="inlineStr">
+      <c r="H73" t="inlineStr">
         <is>
           <t>['simpatisan', 'bodoh', 'orang', 'orangan', 'sawahtidak', 'menyadari', 'panen', 'bakar']</t>
         </is>
       </c>
-      <c r="H73" t="inlineStr">
+      <c r="I73" t="inlineStr">
         <is>
           <t>['simpatisan', 'bodoh', 'orang', 'orang', 'sawahtidak', 'sadar', 'panen', 'bakar']</t>
         </is>
@@ -3067,10 +3432,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>20521</v>
+        <v>23972</v>
       </c>
       <c r="C74" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D74" t="inlineStr">
         <is>
@@ -3084,17 +3449,22 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
+          <t>['dibalik', 'kasus', 'cicak', 'lawan', 'buaya', 'sebenarnya', 'adayg', 'tertutupi', 'kasus', 'ini', 'yang', 'lebih', 'besar', 'melibatkan', 'as']</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 14 samples and 15 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G74" t="inlineStr">
-        <is>
-          <t>['dibalik', 'cicak', 'vs', 'buaya', 'adayg', 'tertutupi', 'lbh', 'melibatkan', 'as']</t>
-        </is>
-      </c>
       <c r="H74" t="inlineStr">
         <is>
-          <t>['balik', 'cicak', 'vs', 'buaya', 'adayg', 'tutup', 'lbh', 'libat', 'as']</t>
+          <t>['dibalik', 'cicak', 'lawan', 'buaya', 'adayg', 'tertutupi', 'melibatkan', 'as']</t>
+        </is>
+      </c>
+      <c r="I74" t="inlineStr">
+        <is>
+          <t>['balik', 'cicak', 'lawan', 'buaya', 'adayg', 'tutup', 'libat', 'as']</t>
         </is>
       </c>
     </row>
@@ -3103,10 +3473,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>20522</v>
+        <v>23973</v>
       </c>
       <c r="C75" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D75" t="inlineStr">
         <is>
@@ -3120,17 +3490,22 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
+          <t>['wkwk', 'publik', 'gila', 'rt', 'publik', 'sangat', 'puas', 'dengan', 'kinerja', 'jokowi']</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G75" t="inlineStr">
-        <is>
-          <t>['lol', 'publik', 'gila', 'publik', 'puas', 'kinerja', 'jokowi']</t>
-        </is>
-      </c>
       <c r="H75" t="inlineStr">
         <is>
-          <t>['lol', 'publik', 'gila', 'publik', 'puas', 'kerja', 'jokowi']</t>
+          <t>['wkwk', 'publik', 'gila', 'publik', 'puas', 'kinerja', 'jokowi']</t>
+        </is>
+      </c>
+      <c r="I75" t="inlineStr">
+        <is>
+          <t>['wkwk', 'publik', 'gila', 'publik', 'puas', 'kerja', 'jokowi']</t>
         </is>
       </c>
     </row>
@@ -3139,10 +3514,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>20523</v>
+        <v>23974</v>
       </c>
       <c r="C76" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D76" t="inlineStr">
         <is>
@@ -3156,17 +3531,22 @@
       </c>
       <c r="F76" t="inlineStr">
         <is>
+          <t>['gila', 'rt', 'alamat', 'wanita', 'pelapor', 'abraham', 'samad', 'diduga', 'fiktif']</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
           <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G76" t="inlineStr">
-        <is>
-          <t>['gilak', 'alamat', 'wanita', 'pelapor', 'abraham', 'samad', 'diduga', 'fiktif']</t>
-        </is>
-      </c>
       <c r="H76" t="inlineStr">
         <is>
-          <t>['gilak', 'alamat', 'wanita', 'lapor', 'abraham', 'samad', 'duga', 'fiktif']</t>
+          <t>['gila', 'alamat', 'wanita', 'pelapor', 'abraham', 'samad', 'diduga', 'fiktif']</t>
+        </is>
+      </c>
+      <c r="I76" t="inlineStr">
+        <is>
+          <t>['gila', 'alamat', 'wanita', 'lapor', 'abraham', 'samad', 'duga', 'fiktif']</t>
         </is>
       </c>
     </row>
@@ -3175,34 +3555,39 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>20524</v>
+        <v>23975</v>
       </c>
       <c r="C77" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>rt lolrt lt korban pmbodohn</t>
+          <t>rt mereka itu kubu masbuloh mega abraham samad budi gunawan surya paloh via dw</t>
         </is>
       </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>['rt', 'lolrt', 'lt', 'korban', 'pmbodohn']</t>
+          <t>['rt', 'mereka', 'itu', 'kubu', 'masbuloh', 'mega', 'abraham', 'samad', 'budi', 'gunawan', 'surya', 'paloh', 'via', 'dw']</t>
         </is>
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
+          <t>['rt', 'mereka', 'itu', 'kubu', 'masbuloh', 'mega', 'abraham', 'samad', 'budi', 'gunawan', 'surya', 'paloh', 'via', 'dw']</t>
         </is>
       </c>
       <c r="G77" t="inlineStr">
         <is>
-          <t>['lolrt', 'lt', 'korban', 'pmbodohn']</t>
+          <t>&lt;FreqDist with 14 samples and 14 outcomes&gt;</t>
         </is>
       </c>
       <c r="H77" t="inlineStr">
         <is>
-          <t>['lolrt', 'lt', 'korban', 'pmbodohn']</t>
+          <t>['kubu', 'masbuloh', 'mega', 'abraham', 'samad', 'budi', 'gunawan', 'surya', 'paloh', 'via', 'dw']</t>
+        </is>
+      </c>
+      <c r="I77" t="inlineStr">
+        <is>
+          <t>['kubu', 'masbuloh', 'mega', 'abraham', 'samad', 'budi', 'gunawan', 'surya', 'paloh', 'via', 'dw']</t>
         </is>
       </c>
     </row>
@@ -3211,34 +3596,39 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>20525</v>
+        <v>23976</v>
       </c>
       <c r="C78" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>kan jokonya jg nggak jelas rt apa yg terjadi dengan negara ini sejak dipimpin jokowi negara jadi semakin tidak jelas</t>
+          <t>rt lolrt lt korban pmbodohn</t>
         </is>
       </c>
       <c r="E78" t="inlineStr">
         <is>
-          <t>['kan', 'jokonya', 'jg', 'nggak', 'jelas', 'rt', 'apa', 'yg', 'terjadi', 'dengan', 'negara', 'ini', 'sejak', 'dipimpin', 'jokowi', 'negara', 'jadi', 'semakin', 'tidak', 'jelas']</t>
+          <t>['rt', 'lolrt', 'lt', 'korban', 'pmbodohn']</t>
         </is>
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
+          <t>['rt', 'lolrt', 'lt', 'korban', 'pmbodohn']</t>
         </is>
       </c>
       <c r="G78" t="inlineStr">
         <is>
-          <t>['jokonya', 'jg', 'nggak', 'negara', 'dipimpin', 'jokowi', 'negara']</t>
+          <t>&lt;FreqDist with 5 samples and 5 outcomes&gt;</t>
         </is>
       </c>
       <c r="H78" t="inlineStr">
         <is>
-          <t>['jokonya', 'jg', 'nggak', 'negara', 'pimpin', 'jokowi', 'negara']</t>
+          <t>['lolrt', 'lt', 'korban', 'pmbodohn']</t>
+        </is>
+      </c>
+      <c r="I78" t="inlineStr">
+        <is>
+          <t>['lolrt', 'lt', 'korban', 'pmbodohn']</t>
         </is>
       </c>
     </row>
@@ -3247,34 +3637,39 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>20526</v>
+        <v>23977</v>
       </c>
       <c r="C79" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>jogoblok rt jokowi lupa wni antre hukuman mati di negara lain</t>
+          <t>kan jokonya jg nggak jelas rt apa yg terjadi dengan negara ini sejak dipimpin jokowi negara jadi semakin tidak jelas</t>
         </is>
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>['jogoblok', 'rt', 'jokowi', 'lupa', 'wni', 'antre', 'hukuman', 'mati', 'di', 'negara', 'lain']</t>
+          <t>['kan', 'jokonya', 'jg', 'nggak', 'jelas', 'rt', 'apa', 'yg', 'terjadi', 'dengan', 'negara', 'ini', 'sejak', 'dipimpin', 'jokowi', 'negara', 'jadi', 'semakin', 'tidak', 'jelas']</t>
         </is>
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
+          <t>['kan', 'jokonya', 'juga', 'enggak', 'jelas', 'rt', 'apa', 'yang', 'terjadi', 'dengan', 'negara', 'ini', 'sejak', 'dipimpin', 'jokowi', 'negara', 'jadi', 'semakin', 'tidak', 'jelas']</t>
         </is>
       </c>
       <c r="G79" t="inlineStr">
         <is>
-          <t>['jogoblok', 'jokowi', 'lupa', 'wni', 'antre', 'hukuman', 'mati', 'negara']</t>
+          <t>&lt;FreqDist with 18 samples and 20 outcomes&gt;</t>
         </is>
       </c>
       <c r="H79" t="inlineStr">
         <is>
-          <t>['jogoblok', 'jokowi', 'lupa', 'wni', 'antre', 'hukum', 'mati', 'negara']</t>
+          <t>['jokonya', 'negara', 'dipimpin', 'jokowi', 'negara']</t>
+        </is>
+      </c>
+      <c r="I79" t="inlineStr">
+        <is>
+          <t>['jokonya', 'negara', 'pimpin', 'jokowi', 'negara']</t>
         </is>
       </c>
     </row>
@@ -3283,34 +3678,39 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>20527</v>
+        <v>23978</v>
       </c>
       <c r="C80" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>buthotedjo rt tedjo rabedjo menteritedjo curigakpk ingin gagalkanpelantikn komjenbudi</t>
+          <t>jogoblok rt jokowi lupa wni antre hukuman mati di negara lain</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>['buthotedjo', 'rt', 'tedjo', 'rabedjo', 'menteritedjo', 'curigakpk', 'ingin', 'gagalkanpelantikn', 'komjenbudi']</t>
+          <t>['jogoblok', 'rt', 'jokowi', 'lupa', 'wni', 'antre', 'hukuman', 'mati', 'di', 'negara', 'lain']</t>
         </is>
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
+          <t>['jogoblok', 'rt', 'jokowi', 'lupa', 'warga, negara, indonesia', 'antre', 'hukuman', 'mati', 'di', 'negara', 'lain']</t>
         </is>
       </c>
       <c r="G80" t="inlineStr">
         <is>
-          <t>['buthotedjo', 'tedjo', 'rabedjo', 'menteritedjo', 'curigakpk', 'gagalkanpelantikn', 'komjenbudi']</t>
+          <t>&lt;FreqDist with 11 samples and 11 outcomes&gt;</t>
         </is>
       </c>
       <c r="H80" t="inlineStr">
         <is>
-          <t>['buthotedjo', 'tedjo', 'rabedjo', 'menteritedjo', 'curigakpk', 'gagalkanpelantikn', 'komjenbudi']</t>
+          <t>['jogoblok', 'jokowi', 'lupa', 'warga, negara, indonesia', 'antre', 'hukuman', 'mati', 'negara']</t>
+        </is>
+      </c>
+      <c r="I80" t="inlineStr">
+        <is>
+          <t>['jogoblok', 'jokowi', 'lupa', 'warga negara indonesia', 'antre', 'hukum', 'mati', 'negara']</t>
         </is>
       </c>
     </row>
@@ -3319,34 +3719,39 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>20528</v>
+        <v>23979</v>
       </c>
       <c r="C81" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>nah rt perlukecerdasan rt ary dulu kita ingatkan ini dituduh fitnah</t>
+          <t>buthotedjo rt tedjo rabedjo menteritedjo curigakpk ingin gagalkanpelantikn komjenbudi</t>
         </is>
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>['nah', 'rt', 'perlukecerdasan', 'rt', 'ary', 'dulu', 'kita', 'ingatkan', 'ini', 'dituduh', 'fitnah']</t>
+          <t>['buthotedjo', 'rt', 'tedjo', 'rabedjo', 'menteritedjo', 'curigakpk', 'ingin', 'gagalkanpelantikn', 'komjenbudi']</t>
         </is>
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+          <t>['buthotedjo', 'rt', 'tedjo', 'rabedjo', 'menteritedjo', 'curigakpk', 'ingin', 'gagalkanpelantikn', 'komjenbudi']</t>
         </is>
       </c>
       <c r="G81" t="inlineStr">
         <is>
-          <t>['perlukecerdasan', 'ary', 'ingatkan', 'dituduh', 'fitnah']</t>
+          <t>&lt;FreqDist with 9 samples and 9 outcomes&gt;</t>
         </is>
       </c>
       <c r="H81" t="inlineStr">
         <is>
-          <t>['perlukecerdasan', 'ary', 'ingat', 'tuduh', 'fitnah']</t>
+          <t>['buthotedjo', 'tedjo', 'rabedjo', 'menteritedjo', 'curigakpk', 'gagalkanpelantikn', 'komjenbudi']</t>
+        </is>
+      </c>
+      <c r="I81" t="inlineStr">
+        <is>
+          <t>['buthotedjo', 'tedjo', 'rabedjo', 'menteritedjo', 'curigakpk', 'gagalkanpelantikn', 'komjenbudi']</t>
         </is>
       </c>
     </row>
@@ -3355,32 +3760,78 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>20529</v>
+        <v>23980</v>
       </c>
       <c r="C82" t="n">
-        <v>247</v>
+        <v>287</v>
       </c>
       <c r="D82" t="inlineStr">
         <is>
+          <t>nah rt perlukecerdasan rt ary dulu kita ingatkan ini dituduh fitnah</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>['nah', 'rt', 'perlukecerdasan', 'rt', 'ary', 'dulu', 'kita', 'ingatkan', 'ini', 'dituduh', 'fitnah']</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>['nah', 'rt', 'perlukecerdasan', 'rt', 'ary', 'dulu', 'kita', 'ingatkan', 'ini', 'dituduh', 'fitnah']</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>&lt;FreqDist with 10 samples and 11 outcomes&gt;</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>['perlukecerdasan', 'ary', 'ingatkan', 'dituduh', 'fitnah']</t>
+        </is>
+      </c>
+      <c r="I82" t="inlineStr">
+        <is>
+          <t>['perlukecerdasan', 'ary', 'ingat', 'tuduh', 'fitnah']</t>
+        </is>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="n">
+        <v>23981</v>
+      </c>
+      <c r="C83" t="n">
+        <v>287</v>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>rt jokowi jadi menunda bukan membatalkan ini yang perlu digarisbawahi</t>
         </is>
       </c>
-      <c r="E82" t="inlineStr">
+      <c r="E83" t="inlineStr">
         <is>
           <t>['rt', 'jokowi', 'jadi', 'menunda', 'bukan', 'membatalkan', 'ini', 'yang', 'perlu', 'digarisbawahi']</t>
         </is>
       </c>
-      <c r="F82" t="inlineStr">
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>['rt', 'jokowi', 'jadi', 'menunda', 'bukan', 'membatalkan', 'ini', 'yang', 'perlu', 'digarisbawahi']</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
         <is>
           <t>&lt;FreqDist with 10 samples and 10 outcomes&gt;</t>
         </is>
       </c>
-      <c r="G82" t="inlineStr">
+      <c r="H83" t="inlineStr">
         <is>
           <t>['jokowi', 'menunda', 'membatalkan', 'digarisbawahi']</t>
         </is>
       </c>
-      <c r="H82" t="inlineStr">
+      <c r="I83" t="inlineStr">
         <is>
           <t>['jokowi', 'tunda', 'batal', 'digarisbawahi']</t>
         </is>
